--- a/Experiment_CSV/exp3_map1.xlsx
+++ b/Experiment_CSV/exp3_map1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anutam/Documents/Multi-Agent-Robot-Path-Planning-for-Warehouse-Environments/Experiment_CSV/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samantha/Desktop/Coding/MATLAB/ECE_MECHE 5463/Final Project/Multi-Agent-Robot-Path-Planning-for-Warehouse-Environments/Experiment_CSV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{326F485A-DC67-4941-962A-ED6D54DA899D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218A59AB-CC80-0C4B-BF9B-5EBAA97FFA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6780" yWindow="500" windowWidth="28040" windowHeight="16520" xr2:uid="{50643946-82B8-314D-9C00-AAF1BFA46D19}"/>
   </bookViews>
@@ -429,7 +429,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -456,7 +456,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -464,7 +464,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -478,10 +478,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
